--- a/data/1.2/aunt(2, 1).xlsx
+++ b/data/1.2/aunt(2, 1).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\1.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEB2536-FEB1-492E-BD39-05D3264C2CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -157,12 +163,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,8 +176,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,15 +230,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,14 +565,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -556,12 +619,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9998</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="C2">
         <v>931</v>
@@ -573,7 +636,7 @@
         <v>-15.478</v>
       </c>
       <c r="F2">
-        <v>-27.171</v>
+        <v>-27.170999999999999</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -597,12 +660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9993</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="C3">
         <v>7529</v>
@@ -611,10 +674,10 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>12.127</v>
+        <v>12.127000000000001</v>
       </c>
       <c r="F3">
-        <v>-8.696</v>
+        <v>-8.6959999999999997</v>
       </c>
       <c r="G3">
         <v>3.5</v>
@@ -638,12 +701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9992</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="C4">
         <v>5393</v>
@@ -655,7 +718,7 @@
         <v>10.169</v>
       </c>
       <c r="F4">
-        <v>-14.392</v>
+        <v>-14.391999999999999</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -679,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -693,10 +756,10 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>7.219</v>
+        <v>7.2190000000000003</v>
       </c>
       <c r="F5">
-        <v>-12.688</v>
+        <v>-12.688000000000001</v>
       </c>
       <c r="G5">
         <v>2.5</v>
@@ -720,12 +783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9988</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="C6">
         <v>-3975</v>
@@ -734,10 +797,10 @@
         <v>4144</v>
       </c>
       <c r="E6">
-        <v>-0.059</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="F6">
-        <v>-0.073</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -761,12 +824,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9986</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="C7">
         <v>-1664</v>
@@ -775,10 +838,10 @@
         <v>-4955</v>
       </c>
       <c r="E7">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="F7">
-        <v>-4.728</v>
+        <v>-4.7279999999999998</v>
       </c>
       <c r="G7">
         <v>10.5</v>
@@ -802,12 +865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9982</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="C8">
         <v>-9033</v>
@@ -816,7 +879,7 @@
         <v>-19403</v>
       </c>
       <c r="E8">
-        <v>-2.349</v>
+        <v>-2.3490000000000002</v>
       </c>
       <c r="F8">
         <v>-23.288</v>
@@ -843,12 +906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9981</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="C9">
         <v>3469</v>
@@ -857,7 +920,7 @@
         <v>-7249</v>
       </c>
       <c r="E9">
-        <v>10.338</v>
+        <v>10.337999999999999</v>
       </c>
       <c r="F9">
         <v>-13.712</v>
@@ -884,12 +947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9979</v>
+        <v>0.99790000000000001</v>
       </c>
       <c r="C10">
         <v>775</v>
@@ -898,10 +961,10 @@
         <v>-2321</v>
       </c>
       <c r="E10">
-        <v>-5.678</v>
+        <v>-5.6779999999999999</v>
       </c>
       <c r="F10">
-        <v>-5.303</v>
+        <v>-5.3029999999999999</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -925,12 +988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9976</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="C11">
         <v>-15148</v>
@@ -942,7 +1005,7 @@
         <v>-15.478</v>
       </c>
       <c r="F11">
-        <v>-27.171</v>
+        <v>-27.170999999999999</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -966,12 +1029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9974</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="C12">
         <v>-10904</v>
@@ -980,7 +1043,7 @@
         <v>-24895</v>
       </c>
       <c r="E12">
-        <v>-3.712</v>
+        <v>-3.7120000000000002</v>
       </c>
       <c r="F12">
         <v>-18.471</v>
@@ -1007,12 +1070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9971</v>
+        <v>0.99709999999999999</v>
       </c>
       <c r="C13">
         <v>2161</v>
@@ -1048,12 +1111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9968</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="C14">
         <v>-8408</v>
@@ -1062,10 +1125,10 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-16.711</v>
+        <v>-16.710999999999999</v>
       </c>
       <c r="F14">
-        <v>-7.162</v>
+        <v>-7.1619999999999999</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1089,12 +1152,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9965000000000001</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="C15">
         <v>9108</v>
@@ -1103,10 +1166,10 @@
         <v>-3272</v>
       </c>
       <c r="E15">
-        <v>19.069</v>
+        <v>19.068999999999999</v>
       </c>
       <c r="F15">
-        <v>-5.987</v>
+        <v>-5.9870000000000001</v>
       </c>
       <c r="G15">
         <v>1.5</v>
@@ -1130,12 +1193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9965000000000001</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="C16">
         <v>-16025</v>
@@ -1144,10 +1207,10 @@
         <v>-4126</v>
       </c>
       <c r="E16">
-        <v>-17.577</v>
+        <v>-17.577000000000002</v>
       </c>
       <c r="F16">
-        <v>-12.697</v>
+        <v>-12.696999999999999</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1171,12 +1234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9965000000000001</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="C17">
         <v>18697</v>
@@ -1185,7 +1248,7 @@
         <v>5152</v>
       </c>
       <c r="E17">
-        <v>20.906</v>
+        <v>20.905999999999999</v>
       </c>
       <c r="F17">
         <v>-7.931</v>
@@ -1212,12 +1275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9962</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="C18">
         <v>5933</v>
@@ -1226,10 +1289,10 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>7.763</v>
+        <v>7.7629999999999999</v>
       </c>
       <c r="F18">
-        <v>-15.024</v>
+        <v>-15.023999999999999</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1253,12 +1316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9959</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="C19">
         <v>5874</v>
@@ -1267,10 +1330,10 @@
         <v>-19160</v>
       </c>
       <c r="E19">
-        <v>2.176</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="F19">
-        <v>-17.371</v>
+        <v>-17.370999999999999</v>
       </c>
       <c r="G19">
         <v>1.5</v>
@@ -1294,12 +1357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9958</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="C20">
         <v>-12283</v>
@@ -1311,7 +1374,7 @@
         <v>-11.254</v>
       </c>
       <c r="F20">
-        <v>-1.572</v>
+        <v>-1.5720000000000001</v>
       </c>
       <c r="G20">
         <v>1.5</v>
@@ -1335,12 +1398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9954</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="C21">
         <v>7530</v>
@@ -1352,7 +1415,7 @@
         <v>10.846</v>
       </c>
       <c r="F21">
-        <v>-16.361</v>
+        <v>-16.361000000000001</v>
       </c>
       <c r="G21">
         <v>1.5</v>
@@ -1377,6 +1440,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>